--- a/src/test/java/com/dataobjects/trainingInput.xlsx
+++ b/src/test/java/com/dataobjects/trainingInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\GABC\src\test\java\com\dataobjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5BD64419-87D4-472B-891D-A60AEBA7BBEC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BDBDFF3D-C974-4FEA-8A13-13A56587CA8F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="21840" windowWidth="38640" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView windowHeight="13176" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Testdata" r:id="rId1" sheetId="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="196">
   <si>
     <t>URL</t>
   </si>
@@ -621,24 +621,6 @@
   </si>
   <si>
     <t>https://penshoppe-test-store.myshopify.com/account/login?return_url=%2Faccount</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -4701,41 +4683,41 @@
   <dimension ref="A1:AG1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B60" xSplit="1" ySplit="1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="E119" xSplit="1" ySplit="1"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="K71" pane="bottomRight" sqref="K71"/>
+      <selection activeCell="K133" pane="bottomRight" sqref="K133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="41.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="25.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="76.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="5" width="31.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="41.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="25.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="76.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="37.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="5" width="31.44140625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="116.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="15.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="116.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="14.33203125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="17.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="2" width="31.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="15.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="14.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="2" width="31.109375" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="22.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="2" width="30.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="15.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="14.85546875" collapsed="true"/>
-    <col min="22" max="31" customWidth="true" style="2" width="14.85546875" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="2" width="16.85546875" collapsed="true"/>
-    <col min="33" max="16384" style="2" width="8.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="2" width="30.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="11.5546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="15.88671875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="14.88671875" collapsed="true"/>
+    <col min="22" max="31" customWidth="true" style="2" width="14.88671875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="2" width="16.88671875" collapsed="true"/>
+    <col min="33" max="16384" style="2" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15.75" r="1" s="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="1" s="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>24</v>
       </c>
@@ -4791,7 +4773,7 @@
       <c r="AE1" s="40"/>
       <c r="AF1" s="40"/>
     </row>
-    <row customFormat="1" ht="45" r="2" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="2" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
@@ -4808,7 +4790,7 @@
       <c r="H2" s="28"/>
       <c r="J2" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="3" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="3" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
@@ -4838,7 +4820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -4873,7 +4855,7 @@
       <c r="AE4" s="13"/>
       <c r="AF4" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="5" s="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="5" s="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>25</v>
       </c>
@@ -4929,7 +4911,7 @@
       <c r="AE5" s="40"/>
       <c r="AF5" s="40"/>
     </row>
-    <row customFormat="1" ht="45" r="6" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="6" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
@@ -4946,7 +4928,7 @@
       <c r="H6" s="28"/>
       <c r="J6" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="7" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="7" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
@@ -4976,7 +4958,7 @@
         <v>130</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
@@ -5012,7 +4994,7 @@
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="9" s="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="9" s="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>26</v>
       </c>
@@ -5068,7 +5050,7 @@
       <c r="AE9" s="40"/>
       <c r="AF9" s="40"/>
     </row>
-    <row customFormat="1" ht="45" r="10" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="10" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>3</v>
       </c>
@@ -5085,7 +5067,7 @@
       <c r="H10" s="28"/>
       <c r="J10" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="11" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="11" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +5097,7 @@
         <v>131</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -5149,7 +5131,7 @@
       <c r="AE12" s="13"/>
       <c r="AF12" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="13" s="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="13" s="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>117</v>
       </c>
@@ -5205,7 +5187,7 @@
       <c r="AE13" s="40"/>
       <c r="AF13" s="40"/>
     </row>
-    <row customFormat="1" ht="45" r="14" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="14" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
@@ -5222,7 +5204,7 @@
       <c r="H14" s="28"/>
       <c r="J14" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="15" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="15" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>5</v>
       </c>
@@ -5252,7 +5234,7 @@
         <v>177</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
@@ -5287,7 +5269,7 @@
       <c r="AE16" s="13"/>
       <c r="AF16" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="17" s="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="17" s="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>27</v>
       </c>
@@ -5343,7 +5325,7 @@
       <c r="AE17" s="40"/>
       <c r="AF17" s="40"/>
     </row>
-    <row customFormat="1" ht="45" r="18" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="18" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
@@ -5360,7 +5342,7 @@
       <c r="H18" s="28"/>
       <c r="J18" s="16"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="29.25" r="19" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="29.25" r="19" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>5</v>
       </c>
@@ -5390,7 +5372,7 @@
         <v>132</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
@@ -5426,7 +5408,7 @@
       <c r="AE20" s="13"/>
       <c r="AF20" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="21" s="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="21" s="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>28</v>
       </c>
@@ -5482,7 +5464,7 @@
       <c r="AE21" s="40"/>
       <c r="AF21" s="40"/>
     </row>
-    <row customFormat="1" ht="45" r="22" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="22" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>3</v>
       </c>
@@ -5499,7 +5481,7 @@
       <c r="H22" s="28"/>
       <c r="J22" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="23" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="23" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>5</v>
       </c>
@@ -5529,7 +5511,7 @@
         <v>133</v>
       </c>
     </row>
-    <row customFormat="1" r="24" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>2</v>
       </c>
@@ -5564,7 +5546,7 @@
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="25" s="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="25" s="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
         <v>29</v>
       </c>
@@ -5620,7 +5602,7 @@
       <c r="AE25" s="40"/>
       <c r="AF25" s="40"/>
     </row>
-    <row customFormat="1" ht="60" r="26" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="26" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>3</v>
       </c>
@@ -5637,7 +5619,7 @@
       <c r="H26" s="28"/>
       <c r="J26" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="27" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="27" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>5</v>
       </c>
@@ -5667,7 +5649,7 @@
         <v>134</v>
       </c>
     </row>
-    <row customFormat="1" r="28" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>2</v>
       </c>
@@ -5703,7 +5685,7 @@
       <c r="AE28" s="13"/>
       <c r="AF28" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="29" s="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="29" s="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
         <v>30</v>
       </c>
@@ -5759,7 +5741,7 @@
       <c r="AE29" s="40"/>
       <c r="AF29" s="40"/>
     </row>
-    <row customFormat="1" ht="60" r="30" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="30" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>3</v>
       </c>
@@ -5776,7 +5758,7 @@
       <c r="H30" s="28"/>
       <c r="J30" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="31" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="31" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>5</v>
       </c>
@@ -5806,7 +5788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row customFormat="1" r="32" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>2</v>
       </c>
@@ -5842,7 +5824,7 @@
       <c r="AE32" s="13"/>
       <c r="AF32" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="33" s="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="33" s="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
         <v>31</v>
       </c>
@@ -5898,7 +5880,7 @@
       <c r="AE33" s="40"/>
       <c r="AF33" s="40"/>
     </row>
-    <row customFormat="1" ht="60" r="34" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="34" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>3</v>
       </c>
@@ -5915,7 +5897,7 @@
       <c r="H34" s="28"/>
       <c r="J34" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="35" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="35" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>5</v>
       </c>
@@ -5945,7 +5927,7 @@
         <v>136</v>
       </c>
     </row>
-    <row customFormat="1" r="36" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>2</v>
       </c>
@@ -5981,7 +5963,7 @@
       <c r="AE36" s="13"/>
       <c r="AF36" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="37" s="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="37" s="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>126</v>
       </c>
@@ -6037,7 +6019,7 @@
       <c r="AE37" s="40"/>
       <c r="AF37" s="40"/>
     </row>
-    <row customFormat="1" ht="60" r="38" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="38" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>3</v>
       </c>
@@ -6054,7 +6036,7 @@
       <c r="H38" s="28"/>
       <c r="J38" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="39" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="39" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>5</v>
       </c>
@@ -6084,7 +6066,7 @@
         <v>137</v>
       </c>
     </row>
-    <row customFormat="1" r="40" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>2</v>
       </c>
@@ -6120,7 +6102,7 @@
       <c r="AE40" s="13"/>
       <c r="AF40" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="41" s="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="41" s="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
         <v>44</v>
       </c>
@@ -6176,7 +6158,7 @@
       <c r="AE41" s="44"/>
       <c r="AF41" s="44"/>
     </row>
-    <row customFormat="1" ht="60" r="42" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="42" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>3</v>
       </c>
@@ -6193,7 +6175,7 @@
       <c r="H42" s="28"/>
       <c r="J42" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="43" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="43" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>5</v>
       </c>
@@ -6223,7 +6205,7 @@
         <v>158</v>
       </c>
     </row>
-    <row customFormat="1" r="44" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>2</v>
       </c>
@@ -6259,7 +6241,7 @@
       <c r="AE44" s="13"/>
       <c r="AF44" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="45" s="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="45" s="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
         <v>46</v>
       </c>
@@ -6315,7 +6297,7 @@
       <c r="AE45" s="44"/>
       <c r="AF45" s="44"/>
     </row>
-    <row customFormat="1" ht="60" r="46" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="46" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>3</v>
       </c>
@@ -6332,7 +6314,7 @@
       <c r="H46" s="28"/>
       <c r="J46" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="47" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="47" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>5</v>
       </c>
@@ -6362,7 +6344,7 @@
         <v>159</v>
       </c>
     </row>
-    <row customFormat="1" r="48" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>2</v>
       </c>
@@ -6398,7 +6380,7 @@
       <c r="AE48" s="13"/>
       <c r="AF48" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="49" s="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="49" s="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>48</v>
       </c>
@@ -6454,7 +6436,7 @@
       <c r="AE49" s="44"/>
       <c r="AF49" s="44"/>
     </row>
-    <row customFormat="1" ht="60" r="50" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="50" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>3</v>
       </c>
@@ -6471,7 +6453,7 @@
       <c r="H50" s="28"/>
       <c r="J50" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="51" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="51" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>5</v>
       </c>
@@ -6501,7 +6483,7 @@
         <v>160</v>
       </c>
     </row>
-    <row customFormat="1" r="52" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>2</v>
       </c>
@@ -6537,7 +6519,7 @@
       <c r="AE52" s="13"/>
       <c r="AF52" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="53" s="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="53" s="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>50</v>
       </c>
@@ -6593,7 +6575,7 @@
       <c r="AE53" s="44"/>
       <c r="AF53" s="44"/>
     </row>
-    <row customFormat="1" ht="60" r="54" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="54" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>3</v>
       </c>
@@ -6610,7 +6592,7 @@
       <c r="H54" s="28"/>
       <c r="J54" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="55" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="55" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>5</v>
       </c>
@@ -6640,7 +6622,7 @@
         <v>161</v>
       </c>
     </row>
-    <row customFormat="1" r="56" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>2</v>
       </c>
@@ -6676,7 +6658,7 @@
       <c r="AE56" s="13"/>
       <c r="AF56" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="57" s="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="57" s="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" s="44" t="s">
         <v>52</v>
       </c>
@@ -6732,7 +6714,7 @@
       <c r="AE57" s="44"/>
       <c r="AF57" s="44"/>
     </row>
-    <row customFormat="1" ht="60" r="58" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="58" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>3</v>
       </c>
@@ -6749,7 +6731,7 @@
       <c r="H58" s="28"/>
       <c r="J58" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="59" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="59" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>5</v>
       </c>
@@ -6779,7 +6761,7 @@
         <v>162</v>
       </c>
     </row>
-    <row customFormat="1" r="60" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>2</v>
       </c>
@@ -6815,7 +6797,7 @@
       <c r="AE60" s="13"/>
       <c r="AF60" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="61" s="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="61" s="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" s="44" t="s">
         <v>54</v>
       </c>
@@ -6871,7 +6853,7 @@
       <c r="AE61" s="44"/>
       <c r="AF61" s="44"/>
     </row>
-    <row customFormat="1" ht="60" r="62" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="62" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>3</v>
       </c>
@@ -6888,7 +6870,7 @@
       <c r="H62" s="28"/>
       <c r="J62" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="63" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="63" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>5</v>
       </c>
@@ -6918,7 +6900,7 @@
         <v>163</v>
       </c>
     </row>
-    <row customFormat="1" r="64" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>2</v>
       </c>
@@ -6954,7 +6936,7 @@
       <c r="AE64" s="13"/>
       <c r="AF64" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="65" s="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="65" s="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" s="44" t="s">
         <v>56</v>
       </c>
@@ -7010,7 +6992,7 @@
       <c r="AE65" s="44"/>
       <c r="AF65" s="44"/>
     </row>
-    <row customFormat="1" ht="60" r="66" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="66" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>3</v>
       </c>
@@ -7027,7 +7009,7 @@
       <c r="H66" s="28"/>
       <c r="J66" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="67" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="67" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>5</v>
       </c>
@@ -7057,7 +7039,7 @@
         <v>164</v>
       </c>
     </row>
-    <row customFormat="1" r="68" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>2</v>
       </c>
@@ -7093,7 +7075,7 @@
       <c r="AE68" s="13"/>
       <c r="AF68" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="69" s="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="69" s="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" s="44" t="s">
         <v>58</v>
       </c>
@@ -7149,7 +7131,7 @@
       <c r="AE69" s="44"/>
       <c r="AF69" s="44"/>
     </row>
-    <row customFormat="1" ht="60" r="70" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="70" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>3</v>
       </c>
@@ -7166,7 +7148,7 @@
       <c r="H70" s="28"/>
       <c r="J70" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="71" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="71" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>5</v>
       </c>
@@ -7190,13 +7172,13 @@
         <v>100</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K71" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row customFormat="1" r="72" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>2</v>
       </c>
@@ -7232,7 +7214,7 @@
       <c r="AE72" s="13"/>
       <c r="AF72" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="73" s="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="73" s="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" s="44" t="s">
         <v>60</v>
       </c>
@@ -7288,7 +7270,7 @@
       <c r="AE73" s="44"/>
       <c r="AF73" s="44"/>
     </row>
-    <row customFormat="1" ht="60" r="74" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="74" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>3</v>
       </c>
@@ -7305,7 +7287,7 @@
       <c r="H74" s="28"/>
       <c r="J74" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="75" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="75" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>5</v>
       </c>
@@ -7329,13 +7311,13 @@
         <v>101</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K75" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row customFormat="1" r="76" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>2</v>
       </c>
@@ -7371,7 +7353,7 @@
       <c r="AE76" s="13"/>
       <c r="AF76" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="77" s="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="77" s="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" s="44" t="s">
         <v>62</v>
       </c>
@@ -7427,7 +7409,7 @@
       <c r="AE77" s="44"/>
       <c r="AF77" s="44"/>
     </row>
-    <row customFormat="1" ht="60" r="78" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="78" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>3</v>
       </c>
@@ -7444,7 +7426,7 @@
       <c r="H78" s="28"/>
       <c r="J78" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="79" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="79" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>5</v>
       </c>
@@ -7474,7 +7456,7 @@
         <v>167</v>
       </c>
     </row>
-    <row customFormat="1" r="80" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>2</v>
       </c>
@@ -7510,7 +7492,7 @@
       <c r="AE80" s="13"/>
       <c r="AF80" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="81" s="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="81" s="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" s="48" t="s">
         <v>64</v>
       </c>
@@ -7566,7 +7548,7 @@
       <c r="AE81" s="48"/>
       <c r="AF81" s="48"/>
     </row>
-    <row customFormat="1" ht="60" r="82" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="82" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>3</v>
       </c>
@@ -7583,7 +7565,7 @@
       <c r="H82" s="28"/>
       <c r="J82" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="83" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="83" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
         <v>5</v>
       </c>
@@ -7613,7 +7595,7 @@
         <v>168</v>
       </c>
     </row>
-    <row customFormat="1" r="84" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>2</v>
       </c>
@@ -7649,7 +7631,7 @@
       <c r="AE84" s="13"/>
       <c r="AF84" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="85" s="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="85" s="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>66</v>
       </c>
@@ -7705,7 +7687,7 @@
       <c r="AE85" s="48"/>
       <c r="AF85" s="48"/>
     </row>
-    <row customFormat="1" ht="60" r="86" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="86" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>3</v>
       </c>
@@ -7722,7 +7704,7 @@
       <c r="H86" s="28"/>
       <c r="J86" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="87" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="87" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87" s="17" t="s">
         <v>5</v>
       </c>
@@ -7752,7 +7734,7 @@
         <v>169</v>
       </c>
     </row>
-    <row customFormat="1" r="88" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>2</v>
       </c>
@@ -7788,7 +7770,7 @@
       <c r="AE88" s="13"/>
       <c r="AF88" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="89" s="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="89" s="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
         <v>68</v>
       </c>
@@ -7844,7 +7826,7 @@
       <c r="AE89" s="48"/>
       <c r="AF89" s="48"/>
     </row>
-    <row customFormat="1" ht="60" r="90" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="90" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>3</v>
       </c>
@@ -7861,7 +7843,7 @@
       <c r="H90" s="28"/>
       <c r="J90" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="91" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="91" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91" s="17" t="s">
         <v>5</v>
       </c>
@@ -7891,7 +7873,7 @@
         <v>170</v>
       </c>
     </row>
-    <row customFormat="1" r="92" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>2</v>
       </c>
@@ -7927,7 +7909,7 @@
       <c r="AE92" s="13"/>
       <c r="AF92" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="93" s="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="93" s="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>70</v>
       </c>
@@ -7983,7 +7965,7 @@
       <c r="AE93" s="48"/>
       <c r="AF93" s="48"/>
     </row>
-    <row customFormat="1" ht="60" r="94" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="94" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>3</v>
       </c>
@@ -8000,7 +7982,7 @@
       <c r="H94" s="28"/>
       <c r="J94" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="95" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="95" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A95" s="17" t="s">
         <v>5</v>
       </c>
@@ -8030,7 +8012,7 @@
         <v>188</v>
       </c>
     </row>
-    <row customFormat="1" r="96" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>2</v>
       </c>
@@ -8066,7 +8048,7 @@
       <c r="AE96" s="13"/>
       <c r="AF96" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="97" s="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="97" s="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A97" s="48" t="s">
         <v>72</v>
       </c>
@@ -8122,7 +8104,7 @@
       <c r="AE97" s="48"/>
       <c r="AF97" s="48"/>
     </row>
-    <row customFormat="1" ht="60" r="98" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="98" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>3</v>
       </c>
@@ -8139,7 +8121,7 @@
       <c r="H98" s="28"/>
       <c r="J98" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="99" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="99" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="s">
         <v>5</v>
       </c>
@@ -8169,7 +8151,7 @@
         <v>171</v>
       </c>
     </row>
-    <row customFormat="1" r="100" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>2</v>
       </c>
@@ -8205,7 +8187,7 @@
       <c r="AE100" s="13"/>
       <c r="AF100" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="101" s="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="101" s="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>74</v>
       </c>
@@ -8261,7 +8243,7 @@
       <c r="AE101" s="48"/>
       <c r="AF101" s="48"/>
     </row>
-    <row customFormat="1" ht="60" r="102" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="102" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>3</v>
       </c>
@@ -8278,7 +8260,7 @@
       <c r="H102" s="28"/>
       <c r="J102" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="103" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="103" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
         <v>5</v>
       </c>
@@ -8308,7 +8290,7 @@
         <v>172</v>
       </c>
     </row>
-    <row customFormat="1" r="104" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>2</v>
       </c>
@@ -8344,7 +8326,7 @@
       <c r="AE104" s="13"/>
       <c r="AF104" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="105" s="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="105" s="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>76</v>
       </c>
@@ -8400,7 +8382,7 @@
       <c r="AE105" s="48"/>
       <c r="AF105" s="48"/>
     </row>
-    <row customFormat="1" ht="60" r="106" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="106" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>3</v>
       </c>
@@ -8417,7 +8399,7 @@
       <c r="H106" s="28"/>
       <c r="J106" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="107" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="107" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
         <v>5</v>
       </c>
@@ -8447,7 +8429,7 @@
         <v>173</v>
       </c>
     </row>
-    <row customFormat="1" r="108" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>2</v>
       </c>
@@ -8483,7 +8465,7 @@
       <c r="AE108" s="13"/>
       <c r="AF108" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="109" s="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="109" s="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A109" s="48" t="s">
         <v>78</v>
       </c>
@@ -8539,7 +8521,7 @@
       <c r="AE109" s="48"/>
       <c r="AF109" s="48"/>
     </row>
-    <row customFormat="1" ht="60" r="110" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="110" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>3</v>
       </c>
@@ -8556,7 +8538,7 @@
       <c r="H110" s="28"/>
       <c r="J110" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="111" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="111" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
         <v>5</v>
       </c>
@@ -8586,7 +8568,7 @@
         <v>174</v>
       </c>
     </row>
-    <row customFormat="1" r="112" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>2</v>
       </c>
@@ -8622,7 +8604,7 @@
       <c r="AE112" s="13"/>
       <c r="AF112" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="113" s="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="113" s="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A113" s="48" t="s">
         <v>80</v>
       </c>
@@ -8678,7 +8660,7 @@
       <c r="AE113" s="48"/>
       <c r="AF113" s="48"/>
     </row>
-    <row customFormat="1" ht="60" r="114" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="114" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>3</v>
       </c>
@@ -8695,7 +8677,7 @@
       <c r="H114" s="28"/>
       <c r="J114" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="115" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="115" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
         <v>5</v>
       </c>
@@ -8725,7 +8707,7 @@
         <v>175</v>
       </c>
     </row>
-    <row customFormat="1" r="116" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
         <v>2</v>
       </c>
@@ -8761,7 +8743,7 @@
       <c r="AE116" s="13"/>
       <c r="AF116" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="117" s="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="117" s="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A117" s="48" t="s">
         <v>82</v>
       </c>
@@ -8817,7 +8799,7 @@
       <c r="AE117" s="48"/>
       <c r="AF117" s="48"/>
     </row>
-    <row customFormat="1" ht="60" r="118" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="118" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
         <v>3</v>
       </c>
@@ -8834,7 +8816,7 @@
       <c r="H118" s="28"/>
       <c r="J118" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="119" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="119" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
         <v>5</v>
       </c>
@@ -8864,7 +8846,7 @@
         <v>176</v>
       </c>
     </row>
-    <row customFormat="1" r="120" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
         <v>2</v>
       </c>
@@ -8900,7 +8882,7 @@
       <c r="AE120" s="13"/>
       <c r="AF120" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="121" s="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="121" s="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A121" s="67" t="s">
         <v>181</v>
       </c>
@@ -8956,7 +8938,7 @@
       <c r="AE121" s="67"/>
       <c r="AF121" s="67"/>
     </row>
-    <row customFormat="1" ht="60" r="122" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="122" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>3</v>
       </c>
@@ -8973,7 +8955,7 @@
       <c r="H122" s="28"/>
       <c r="J122" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="123" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="123" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
         <v>5</v>
       </c>
@@ -9003,7 +8985,7 @@
         <v>185</v>
       </c>
     </row>
-    <row customFormat="1" r="124" s="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="124" s="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>2</v>
       </c>
@@ -9039,7 +9021,7 @@
       <c r="AE124" s="13"/>
       <c r="AF124" s="13"/>
     </row>
-    <row customFormat="1" ht="15.75" r="125" s="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="125" s="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A125" s="67" t="s">
         <v>182</v>
       </c>
@@ -9095,7 +9077,7 @@
       <c r="AE125" s="67"/>
       <c r="AF125" s="67"/>
     </row>
-    <row customFormat="1" ht="60" r="126" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="57.6" r="126" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>3</v>
       </c>
@@ -9112,7 +9094,7 @@
       <c r="H126" s="28"/>
       <c r="J126" s="16"/>
     </row>
-    <row customFormat="1" ht="30" r="127" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="28.8" r="127" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
         <v>5</v>
       </c>
@@ -9142,7 +9124,7 @@
         <v>187</v>
       </c>
     </row>
-    <row customFormat="1" r="128" s="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" s="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
         <v>2</v>
       </c>
@@ -9178,7 +9160,7 @@
       <c r="AE128" s="13"/>
       <c r="AF128" s="13"/>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="E129" s="6"/>
       <c r="F129" s="5"/>
@@ -9208,7 +9190,7 @@
       <c r="AE129" s="5"/>
       <c r="AF129" s="5"/>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="E130" s="4"/>
       <c r="F130" s="5"/>
@@ -9238,7 +9220,7 @@
       <c r="AE130" s="5"/>
       <c r="AF130" s="5"/>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="E131" s="4"/>
       <c r="F131" s="5"/>
@@ -9268,7 +9250,7 @@
       <c r="AE131" s="5"/>
       <c r="AF131" s="5"/>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="E132" s="4"/>
       <c r="F132" s="5"/>
@@ -9298,7 +9280,7 @@
       <c r="AE132" s="5"/>
       <c r="AF132" s="5"/>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="E133" s="4"/>
       <c r="F133" s="5"/>
@@ -9328,7 +9310,7 @@
       <c r="AE133" s="5"/>
       <c r="AF133" s="5"/>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="E134" s="4"/>
       <c r="F134" s="5"/>
@@ -9358,7 +9340,7 @@
       <c r="AE134" s="5"/>
       <c r="AF134" s="5"/>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="10"/>
@@ -9392,7 +9374,7 @@
       <c r="AE135" s="1"/>
       <c r="AF135" s="1"/>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="10"/>
@@ -9426,22 +9408,22 @@
       <c r="AE136" s="1"/>
       <c r="AF136" s="1"/>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="E140" s="4"/>
       <c r="F140" s="5"/>
@@ -9471,7 +9453,7 @@
       <c r="AE140" s="5"/>
       <c r="AF140" s="5"/>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="E141" s="6"/>
       <c r="F141" s="7"/>
@@ -9502,7 +9484,7 @@
       <c r="AE141" s="7"/>
       <c r="AF141" s="7"/>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="E142" s="4"/>
       <c r="F142" s="5"/>
@@ -9532,7 +9514,7 @@
       <c r="AE142" s="5"/>
       <c r="AF142" s="5"/>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="E143" s="4"/>
       <c r="F143" s="5"/>
@@ -9562,7 +9544,7 @@
       <c r="AE143" s="5"/>
       <c r="AF143" s="5"/>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="E144" s="4"/>
       <c r="F144" s="5"/>
@@ -9592,7 +9574,7 @@
       <c r="AE144" s="5"/>
       <c r="AF144" s="5"/>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="E145" s="4"/>
       <c r="F145" s="5"/>
@@ -9622,7 +9604,7 @@
       <c r="AE145" s="5"/>
       <c r="AF145" s="5"/>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="E146" s="4"/>
       <c r="F146" s="5"/>
@@ -9652,7 +9634,7 @@
       <c r="AE146" s="5"/>
       <c r="AF146" s="5"/>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="10"/>
@@ -9686,7 +9668,7 @@
       <c r="AE147" s="1"/>
       <c r="AF147" s="1"/>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="10"/>
@@ -9720,22 +9702,22 @@
       <c r="AE148" s="1"/>
       <c r="AF148" s="1"/>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
@@ -9765,7 +9747,7 @@
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="E153" s="6"/>
       <c r="F153" s="7"/>
@@ -9796,7 +9778,7 @@
       <c r="AE153" s="7"/>
       <c r="AF153" s="7"/>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="E154" s="6"/>
       <c r="F154" s="7"/>
@@ -9827,7 +9809,7 @@
       <c r="AE154" s="7"/>
       <c r="AF154" s="7"/>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="E155" s="6"/>
       <c r="F155" s="5"/>
@@ -9857,7 +9839,7 @@
       <c r="AE155" s="5"/>
       <c r="AF155" s="5"/>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
@@ -9887,7 +9869,7 @@
       <c r="AE156" s="5"/>
       <c r="AF156" s="5"/>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="E157" s="4"/>
       <c r="F157" s="5"/>
@@ -9918,7 +9900,7 @@
       <c r="AE157" s="5"/>
       <c r="AF157" s="5"/>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="E158" s="4"/>
       <c r="F158" s="5"/>
@@ -9948,7 +9930,7 @@
       <c r="AE158" s="5"/>
       <c r="AF158" s="5"/>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="E159" s="4"/>
       <c r="F159" s="5"/>
@@ -9978,7 +9960,7 @@
       <c r="AE159" s="5"/>
       <c r="AF159" s="5"/>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="10"/>
@@ -10012,7 +9994,7 @@
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="10"/>
@@ -10046,22 +10028,22 @@
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="E165" s="4"/>
       <c r="F165" s="5"/>
@@ -10091,7 +10073,7 @@
       <c r="AE165" s="5"/>
       <c r="AF165" s="5"/>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="E166" s="6"/>
       <c r="F166" s="7"/>
@@ -10122,7 +10104,7 @@
       <c r="AE166" s="7"/>
       <c r="AF166" s="7"/>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="E167" s="6"/>
       <c r="F167" s="5"/>
@@ -10152,7 +10134,7 @@
       <c r="AE167" s="5"/>
       <c r="AF167" s="5"/>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="E168" s="4"/>
       <c r="F168" s="5"/>
@@ -10182,7 +10164,7 @@
       <c r="AE168" s="5"/>
       <c r="AF168" s="5"/>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="E169" s="4"/>
       <c r="F169" s="5"/>
@@ -10212,7 +10194,7 @@
       <c r="AE169" s="5"/>
       <c r="AF169" s="5"/>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="E170" s="4"/>
       <c r="F170" s="5"/>
@@ -10242,7 +10224,7 @@
       <c r="AE170" s="5"/>
       <c r="AF170" s="5"/>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="E171" s="4"/>
       <c r="F171" s="5"/>
@@ -10272,7 +10254,7 @@
       <c r="AE171" s="5"/>
       <c r="AF171" s="5"/>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="10"/>
@@ -10306,7 +10288,7 @@
       <c r="AE172" s="1"/>
       <c r="AF172" s="1"/>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="10"/>
@@ -10340,22 +10322,22 @@
       <c r="AE173" s="1"/>
       <c r="AF173" s="1"/>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="E177" s="4"/>
       <c r="F177" s="5"/>
@@ -10385,7 +10367,7 @@
       <c r="AE177" s="5"/>
       <c r="AF177" s="5"/>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="E178" s="6"/>
       <c r="F178" s="5"/>
@@ -10416,7 +10398,7 @@
       <c r="AE178" s="7"/>
       <c r="AF178" s="7"/>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="E179" s="6"/>
       <c r="F179" s="5"/>
@@ -10446,7 +10428,7 @@
       <c r="AE179" s="5"/>
       <c r="AF179" s="5"/>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="E180" s="4"/>
       <c r="F180" s="5"/>
@@ -10476,7 +10458,7 @@
       <c r="AE180" s="5"/>
       <c r="AF180" s="5"/>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="E181" s="4"/>
       <c r="F181" s="5"/>
@@ -10506,7 +10488,7 @@
       <c r="AE181" s="5"/>
       <c r="AF181" s="5"/>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="E182" s="4"/>
       <c r="F182" s="5"/>
@@ -10536,7 +10518,7 @@
       <c r="AE182" s="5"/>
       <c r="AF182" s="5"/>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="E183" s="4"/>
       <c r="F183" s="5"/>
@@ -10566,7 +10548,7 @@
       <c r="AE183" s="5"/>
       <c r="AF183" s="5"/>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="10"/>
@@ -10600,7 +10582,7 @@
       <c r="AE184" s="1"/>
       <c r="AF184" s="1"/>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="10"/>
@@ -10634,22 +10616,22 @@
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="E189" s="4"/>
       <c r="F189" s="5"/>
@@ -10679,7 +10661,7 @@
       <c r="AE189" s="5"/>
       <c r="AF189" s="5"/>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="E190" s="6"/>
       <c r="F190" s="5"/>
@@ -10710,7 +10692,7 @@
       <c r="AE190" s="7"/>
       <c r="AF190" s="7"/>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="E191" s="6"/>
       <c r="F191" s="5"/>
@@ -10740,7 +10722,7 @@
       <c r="AE191" s="5"/>
       <c r="AF191" s="5"/>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="E192" s="4"/>
       <c r="F192" s="5"/>
@@ -10770,7 +10752,7 @@
       <c r="AE192" s="5"/>
       <c r="AF192" s="5"/>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="E193" s="4"/>
       <c r="F193" s="5"/>
@@ -10800,7 +10782,7 @@
       <c r="AE193" s="5"/>
       <c r="AF193" s="5"/>
     </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="E194" s="4"/>
       <c r="F194" s="5"/>
@@ -10830,7 +10812,7 @@
       <c r="AE194" s="5"/>
       <c r="AF194" s="5"/>
     </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="E195" s="4"/>
       <c r="F195" s="5"/>
@@ -10860,7 +10842,7 @@
       <c r="AE195" s="5"/>
       <c r="AF195" s="5"/>
     </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="10"/>
@@ -10894,7 +10876,7 @@
       <c r="AE196" s="1"/>
       <c r="AF196" s="1"/>
     </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="10"/>
@@ -10928,22 +10910,22 @@
       <c r="AE197" s="1"/>
       <c r="AF197" s="1"/>
     </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
     </row>
-    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
     </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
     </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
@@ -10973,7 +10955,7 @@
       <c r="AE201" s="5"/>
       <c r="AF201" s="5"/>
     </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="E202" s="4"/>
       <c r="F202" s="7"/>
@@ -11004,7 +10986,7 @@
       <c r="AE202" s="7"/>
       <c r="AF202" s="7"/>
     </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="E203" s="4"/>
       <c r="F203" s="5"/>
@@ -11034,7 +11016,7 @@
       <c r="AE203" s="5"/>
       <c r="AF203" s="5"/>
     </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="E204" s="4"/>
       <c r="F204" s="5"/>
@@ -11064,7 +11046,7 @@
       <c r="AE204" s="5"/>
       <c r="AF204" s="5"/>
     </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="E205" s="4"/>
       <c r="F205" s="5"/>
@@ -11095,7 +11077,7 @@
       <c r="AE205" s="7"/>
       <c r="AF205" s="5"/>
     </row>
-    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="E206" s="4"/>
       <c r="F206" s="5"/>
@@ -11125,7 +11107,7 @@
       <c r="AE206" s="7"/>
       <c r="AF206" s="5"/>
     </row>
-    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="E207" s="4"/>
       <c r="F207" s="5"/>
@@ -11155,7 +11137,7 @@
       <c r="AE207" s="7"/>
       <c r="AF207" s="5"/>
     </row>
-    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="10"/>
@@ -11189,7 +11171,7 @@
       <c r="AE208" s="1"/>
       <c r="AF208" s="1"/>
     </row>
-    <row r="209" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="10"/>
@@ -11223,22 +11205,22 @@
       <c r="AE209" s="1"/>
       <c r="AF209" s="1"/>
     </row>
-    <row r="210" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
     </row>
-    <row r="211" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
     </row>
-    <row r="212" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
     </row>
-    <row r="213" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="E213" s="4"/>
       <c r="F213" s="5"/>
@@ -11268,7 +11250,7 @@
       <c r="AE213" s="5"/>
       <c r="AF213" s="5"/>
     </row>
-    <row r="214" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="E214" s="4"/>
       <c r="F214" s="7"/>
@@ -11299,7 +11281,7 @@
       <c r="AE214" s="7"/>
       <c r="AF214" s="7"/>
     </row>
-    <row r="215" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="E215" s="4"/>
       <c r="F215" s="5"/>
@@ -11329,7 +11311,7 @@
       <c r="AE215" s="5"/>
       <c r="AF215" s="5"/>
     </row>
-    <row r="216" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="E216" s="4"/>
       <c r="F216" s="5"/>
@@ -11359,7 +11341,7 @@
       <c r="AE216" s="5"/>
       <c r="AF216" s="5"/>
     </row>
-    <row r="217" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="E217" s="4"/>
       <c r="F217" s="5"/>
@@ -11390,7 +11372,7 @@
       <c r="AE217" s="7"/>
       <c r="AF217" s="5"/>
     </row>
-    <row r="218" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="E218" s="4"/>
       <c r="F218" s="5"/>
@@ -11420,7 +11402,7 @@
       <c r="AE218" s="7"/>
       <c r="AF218" s="5"/>
     </row>
-    <row r="219" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="E219" s="4"/>
       <c r="F219" s="5"/>
@@ -11450,7 +11432,7 @@
       <c r="AE219" s="7"/>
       <c r="AF219" s="5"/>
     </row>
-    <row r="220" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="10"/>
@@ -11484,7 +11466,7 @@
       <c r="AE220" s="1"/>
       <c r="AF220" s="1"/>
     </row>
-    <row r="221" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="10"/>
@@ -11518,22 +11500,22 @@
       <c r="AE221" s="1"/>
       <c r="AF221" s="1"/>
     </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
     </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
     </row>
-    <row r="224" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
     </row>
-    <row r="225" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="E225" s="4"/>
       <c r="F225" s="5"/>
@@ -11563,7 +11545,7 @@
       <c r="AE225" s="5"/>
       <c r="AF225" s="5"/>
     </row>
-    <row r="226" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="E226" s="4"/>
       <c r="F226" s="7"/>
@@ -11594,7 +11576,7 @@
       <c r="AE226" s="7"/>
       <c r="AF226" s="7"/>
     </row>
-    <row r="227" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="E227" s="4"/>
       <c r="F227" s="5"/>
@@ -11624,7 +11606,7 @@
       <c r="AE227" s="5"/>
       <c r="AF227" s="5"/>
     </row>
-    <row r="228" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="E228" s="4"/>
       <c r="F228" s="5"/>
@@ -11654,7 +11636,7 @@
       <c r="AE228" s="5"/>
       <c r="AF228" s="5"/>
     </row>
-    <row r="229" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="E229" s="4"/>
       <c r="F229" s="5"/>
@@ -11685,7 +11667,7 @@
       <c r="AE229" s="7"/>
       <c r="AF229" s="5"/>
     </row>
-    <row r="230" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="E230" s="4"/>
       <c r="F230" s="5"/>
@@ -11715,7 +11697,7 @@
       <c r="AE230" s="7"/>
       <c r="AF230" s="5"/>
     </row>
-    <row r="231" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="E231" s="4"/>
       <c r="F231" s="5"/>
@@ -11745,7 +11727,7 @@
       <c r="AE231" s="7"/>
       <c r="AF231" s="5"/>
     </row>
-    <row r="232" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="10"/>
@@ -11779,12 +11761,12 @@
       <c r="AE232" s="1"/>
       <c r="AF232" s="1"/>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1000" s="74" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1001" s="74" t="s">
         <v>191</v>
       </c>
@@ -12906,15 +12888,15 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="52" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="23" width="11.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="112.85546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="52" width="39.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="23" width="11.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="112.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="15.75" r="1" s="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15.6" r="1" s="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>41</v>
       </c>
@@ -12928,7 +12910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
         <v>24</v>
       </c>
@@ -12942,7 +12924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>25</v>
       </c>
@@ -12956,7 +12938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
         <v>26</v>
       </c>
@@ -12970,7 +12952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
         <v>117</v>
       </c>
@@ -12984,7 +12966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
         <v>27</v>
       </c>
@@ -12998,7 +12980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="54" t="s">
         <v>28</v>
       </c>
@@ -13012,7 +12994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
         <v>29</v>
       </c>
@@ -13026,7 +13008,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
         <v>30</v>
       </c>
@@ -13040,7 +13022,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>31</v>
       </c>
@@ -13054,7 +13036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="54" t="s">
         <v>126</v>
       </c>
@@ -13068,7 +13050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
         <v>44</v>
       </c>
@@ -13079,7 +13061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
         <v>46</v>
       </c>
@@ -13090,7 +13072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>48</v>
       </c>
@@ -13101,7 +13083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
         <v>50</v>
       </c>
@@ -13112,7 +13094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
         <v>52</v>
       </c>
@@ -13123,7 +13105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
         <v>54</v>
       </c>
@@ -13134,7 +13116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
         <v>56</v>
       </c>
@@ -13145,7 +13127,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
         <v>58</v>
       </c>
@@ -13156,7 +13138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
         <v>60</v>
       </c>
@@ -13167,7 +13149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
         <v>62</v>
       </c>
@@ -13178,7 +13160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>64</v>
       </c>
@@ -13189,7 +13171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>66</v>
       </c>
@@ -13200,7 +13182,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
         <v>68</v>
       </c>
@@ -13211,7 +13193,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
         <v>70</v>
       </c>
@@ -13222,7 +13204,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>72</v>
       </c>
@@ -13233,7 +13215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>74</v>
       </c>
@@ -13244,7 +13226,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="56" t="s">
         <v>76</v>
       </c>
@@ -13255,7 +13237,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="56" t="s">
         <v>78</v>
       </c>
@@ -13266,7 +13248,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="56" t="s">
         <v>80</v>
       </c>
@@ -13277,7 +13259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
         <v>82</v>
       </c>
